--- a/data/caiyi.xlsx
+++ b/data/caiyi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人文件夹\作业\MI 439\mi349_final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC4469D-C5E5-435C-B494-481E73020A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0D8279-A7D5-4126-B4E1-9CC3E214A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>[1] 制作委托：廉价的内衣</t>
   </si>
@@ -834,6 +834,9 @@
   </si>
   <si>
     <t>迷彩绒游击打底裤</t>
+  </si>
+  <si>
+    <t>旧萨雷安</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3290,16 +3293,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966635B5-DEB6-49BC-A3FF-873AC9153093}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>248</v>
       </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
       <c r="C1">
         <v>724620</v>
       </c>
@@ -3314,6 +3323,9 @@
       <c r="A2" t="s">
         <v>250</v>
       </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
       <c r="C2">
         <v>935000</v>
       </c>
@@ -3328,6 +3340,9 @@
       <c r="A3" t="s">
         <v>252</v>
       </c>
+      <c r="B3" t="s">
+        <v>268</v>
+      </c>
       <c r="C3">
         <v>1051810</v>
       </c>
@@ -3342,6 +3357,9 @@
       <c r="A4" t="s">
         <v>254</v>
       </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
       <c r="C4">
         <v>1582910</v>
       </c>
@@ -3356,6 +3374,9 @@
       <c r="A5" t="s">
         <v>256</v>
       </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
       <c r="C5">
         <v>933280</v>
       </c>
@@ -3370,6 +3391,9 @@
       <c r="A6" t="s">
         <v>258</v>
       </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
       <c r="C6">
         <v>1255600</v>
       </c>
@@ -3384,6 +3408,9 @@
       <c r="A7" t="s">
         <v>260</v>
       </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
       <c r="C7">
         <v>1922600</v>
       </c>
@@ -3398,6 +3425,9 @@
       <c r="A8" t="s">
         <v>262</v>
       </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
       <c r="C8">
         <v>1443780</v>
       </c>
@@ -3412,6 +3442,9 @@
       <c r="A9" t="s">
         <v>264</v>
       </c>
+      <c r="B9" t="s">
+        <v>268</v>
+      </c>
       <c r="C9">
         <v>1703250</v>
       </c>
@@ -3425,6 +3458,9 @@
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
       </c>
       <c r="C10">
         <v>2257300</v>
